--- a/pred_ohlcv/54_21/2020-01-13 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 MIX ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>-2667062.938899999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3098028.071199999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3601202.8964</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4366514.5488</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4321300.651</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4254036.221299999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3306793.0544</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3306172.0544</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3129271.2959</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 MIX ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>-2667062.938899999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1937831.611199999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1937831.611199999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1937831.611199999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1937831.611199999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3098028.071199999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3098028.071199999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3098229.841199999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3601202.8964</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4366514.5488</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4321300.651</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4254036.221299999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3451330.7914</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3541720.7368</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3306793.0544</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3306172.0544</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3129271.2959</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2843830.6628</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2856061.5471</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2856061.5471</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
